--- a/output_validation/0b_female_pin_percentage_total_OCHA.xlsx
+++ b/output_validation/0b_female_pin_percentage_total_OCHA.xlsx
@@ -31,28 +31,28 @@
     <t>TotN</t>
   </si>
   <si>
-    <t>% 1-2</t>
-  </si>
-  <si>
-    <t># 1-2</t>
-  </si>
-  <si>
-    <t>% 3</t>
-  </si>
-  <si>
-    <t># 3</t>
-  </si>
-  <si>
-    <t>% 4</t>
-  </si>
-  <si>
-    <t># 4</t>
-  </si>
-  <si>
-    <t>% 5</t>
-  </si>
-  <si>
-    <t># 5</t>
+    <t>% severity levels 1-2</t>
+  </si>
+  <si>
+    <t># severity levels 1-2</t>
+  </si>
+  <si>
+    <t>% severity level 3</t>
+  </si>
+  <si>
+    <t># severity level 3</t>
+  </si>
+  <si>
+    <t>% severity level 4</t>
+  </si>
+  <si>
+    <t># severity level 4</t>
+  </si>
+  <si>
+    <t>% severity level 5</t>
+  </si>
+  <si>
+    <t># severity level 5</t>
   </si>
   <si>
     <t>Category</t>

--- a/output_validation/0b_female_pin_percentage_total_OCHA.xlsx
+++ b/output_validation/0b_female_pin_percentage_total_OCHA.xlsx
@@ -17,9 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="34">
-  <si>
-    <t>admin1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="37">
+  <si>
+    <t>admin3</t>
   </si>
   <si>
     <t>Population group</t>
@@ -55,64 +55,73 @@
     <t>Category</t>
   </si>
   <si>
-    <t>MMR001</t>
-  </si>
-  <si>
-    <t>MMR002</t>
-  </si>
-  <si>
-    <t>MMR003</t>
-  </si>
-  <si>
-    <t>MMR004</t>
-  </si>
-  <si>
-    <t>MMR005</t>
-  </si>
-  <si>
-    <t>MMR006</t>
-  </si>
-  <si>
-    <t>MMR007</t>
-  </si>
-  <si>
-    <t>MMR008</t>
-  </si>
-  <si>
-    <t>MMR009</t>
-  </si>
-  <si>
-    <t>MMR010</t>
-  </si>
-  <si>
-    <t>MMR011</t>
-  </si>
-  <si>
-    <t>MMR012</t>
-  </si>
-  <si>
-    <t>MMR013</t>
-  </si>
-  <si>
-    <t>MMR014</t>
-  </si>
-  <si>
-    <t>MMR015</t>
-  </si>
-  <si>
-    <t>MMR016</t>
-  </si>
-  <si>
-    <t>MMR017</t>
-  </si>
-  <si>
-    <t>MMR018</t>
+    <t>MMR008003</t>
+  </si>
+  <si>
+    <t>MMR009019</t>
+  </si>
+  <si>
+    <t>MMR009020</t>
+  </si>
+  <si>
+    <t>MMR012003</t>
+  </si>
+  <si>
+    <t>MMR012006</t>
+  </si>
+  <si>
+    <t>MMR012010</t>
+  </si>
+  <si>
+    <t>MMR012011</t>
+  </si>
+  <si>
+    <t>MMR012015</t>
+  </si>
+  <si>
+    <t>MMR012016</t>
+  </si>
+  <si>
+    <t>MMR001001</t>
+  </si>
+  <si>
+    <t>MMR001002</t>
+  </si>
+  <si>
+    <t>MMR001004</t>
+  </si>
+  <si>
+    <t>MMR002005</t>
+  </si>
+  <si>
+    <t>MMR002006</t>
+  </si>
+  <si>
+    <t>MMR002007</t>
   </si>
   <si>
     <t>ocap</t>
   </si>
   <si>
+    <t>MMR009018</t>
+  </si>
+  <si>
+    <t>MMR012001</t>
+  </si>
+  <si>
+    <t>MMR012005</t>
+  </si>
+  <si>
+    <t>MMR012007</t>
+  </si>
+  <si>
     <t>idp</t>
+  </si>
+  <si>
+    <t>MMR012004</t>
+  </si>
+  <si>
+    <t>MMR012014</t>
   </si>
   <si>
     <t>ret</t>
@@ -476,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,16 +534,16 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2">
-        <v>37650.76</v>
+        <v>82694.64</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>37650.76</v>
+        <v>82694.64</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -555,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -563,28 +572,28 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C3">
         <v>19713.68</v>
       </c>
       <c r="D3">
-        <v>0.3058367755965674</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>6029.168326342539</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6445471855862365</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>12706.39696154768</v>
+        <v>19713.68</v>
       </c>
       <c r="H3">
-        <v>0.0496160388171961</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>978.1147121097823</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -593,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -601,22 +610,22 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C4">
-        <v>28440.16</v>
+        <v>187845</v>
       </c>
       <c r="D4">
-        <v>0.7120893892863492</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>20251.93616560606</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.2879106107136508</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>8188.223834393942</v>
+        <v>187845</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -631,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -639,22 +648,22 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C5">
-        <v>31742.76</v>
+        <v>37650.76</v>
       </c>
       <c r="D5">
-        <v>0.1798401574664472</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>5708.62295681964</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7307087938458432</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>23194.71387293807</v>
+        <v>37650.76</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -663,13 +672,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.08945104868770958</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>2839.42317024228</v>
+        <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -677,10 +686,10 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C6">
-        <v>82694.64</v>
+        <v>69429.36</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -692,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>82694.64</v>
+        <v>69429.36</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -707,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -715,28 +724,28 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C7">
-        <v>150639.356</v>
+        <v>41354.88</v>
       </c>
       <c r="D7">
-        <v>0.4902601885568573</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>73852.47907664355</v>
+        <v>41354.88</v>
       </c>
       <c r="F7">
-        <v>0.4413829698821847</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>66489.6463324197</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.06835684156095806</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>10297.23059093676</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -745,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -753,22 +762,22 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C8">
-        <v>60490.066</v>
+        <v>37505.16</v>
       </c>
       <c r="D8">
-        <v>0.905958133748504</v>
+        <v>0.4190776228049733</v>
       </c>
       <c r="E8">
-        <v>54801.46730368383</v>
+        <v>15717.57329572017</v>
       </c>
       <c r="F8">
-        <v>0.09404186625149602</v>
+        <v>0.5809223771950267</v>
       </c>
       <c r="G8">
-        <v>5688.598696316167</v>
+        <v>21787.58670427983</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -783,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -791,22 +800,22 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C9">
-        <v>43661.506</v>
+        <v>60490.066</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>43661.506</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>60490.066</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -821,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -829,22 +838,22 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C10">
-        <v>41323.835</v>
+        <v>49846.447</v>
       </c>
       <c r="D10">
-        <v>0.8009373528149383</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>33097.8030130613</v>
+        <v>49846.447</v>
       </c>
       <c r="F10">
-        <v>0.1990626471850619</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>8226.031986938711</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -859,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -867,22 +876,22 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11">
-        <v>187845</v>
+        <v>82694.64</v>
       </c>
       <c r="D11">
-        <v>0.8684738344660423</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>163138.4674352737</v>
+        <v>82694.64</v>
       </c>
       <c r="F11">
-        <v>0.1315261655339577</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>24706.53256472629</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -897,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -905,22 +914,22 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C12">
-        <v>37505.16</v>
+        <v>37650.76</v>
       </c>
       <c r="D12">
-        <v>0.9144449887807446</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>34296.40561542003</v>
+        <v>37650.76</v>
       </c>
       <c r="F12">
-        <v>0.08555501121925543</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>3208.75438457997</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -935,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -943,22 +952,22 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C13">
-        <v>41354.88</v>
+        <v>34110.16</v>
       </c>
       <c r="D13">
-        <v>0.5399536171947253</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>22329.71704465381</v>
+        <v>34110.16</v>
       </c>
       <c r="F13">
-        <v>0.4600463828052747</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>19025.1629553462</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -973,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -981,28 +990,28 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C14">
-        <v>49846.447</v>
+        <v>43661.506</v>
       </c>
       <c r="D14">
-        <v>0.5607708017100445</v>
+        <v>0.3058367755965674</v>
       </c>
       <c r="E14">
-        <v>27952.43204658724</v>
+        <v>13353.29421273018</v>
       </c>
       <c r="F14">
-        <v>0.3443000699756158</v>
+        <v>0.6445471855862365</v>
       </c>
       <c r="G14">
-        <v>17162.13519013582</v>
+        <v>28141.90081075658</v>
       </c>
       <c r="H14">
-        <v>0.09492912831433981</v>
+        <v>0.0496160388171961</v>
       </c>
       <c r="I14">
-        <v>4731.879763276938</v>
+        <v>2166.31097651324</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1011,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1019,28 +1028,28 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C15">
-        <v>96005.84</v>
+        <v>150639.356</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0.3058367755965674</v>
       </c>
       <c r="E15">
-        <v>96005.84</v>
+        <v>46071.05491698342</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.6445471855862365</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>97094.17294832313</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.0496160388171961</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>7474.12813469342</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1049,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1057,28 +1066,28 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C16">
-        <v>69429.36</v>
+        <v>37502.906</v>
       </c>
       <c r="D16">
-        <v>0.5552593172167583</v>
+        <v>0.3058367755965674</v>
       </c>
       <c r="E16">
-        <v>38551.2990283965</v>
+        <v>11469.76784654116</v>
       </c>
       <c r="F16">
-        <v>0.4447406827832417</v>
+        <v>0.6445471855862365</v>
       </c>
       <c r="G16">
-        <v>30878.06097160349</v>
+        <v>24172.39251360518</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.0496160388171961</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1860.745639853656</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1087,121 +1096,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17">
-        <v>37502.906</v>
-      </c>
-      <c r="D17">
-        <v>0.8795973730865113</v>
-      </c>
-      <c r="E17">
-        <v>32987.45760071037</v>
-      </c>
-      <c r="F17">
-        <v>0.1204026269134886</v>
-      </c>
-      <c r="G17">
-        <v>4515.448399289632</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18">
-        <v>43375.465</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>43375.465</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19">
-        <v>34110.16</v>
-      </c>
-      <c r="D19">
-        <v>0.3986657240056399</v>
-      </c>
-      <c r="E19">
-        <v>13598.55163234822</v>
-      </c>
-      <c r="F19">
-        <v>0.6013342759943602</v>
-      </c>
-      <c r="G19">
-        <v>20511.60836765178</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1211,7 +1106,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1257,31 +1152,31 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2">
-        <v>5378.68</v>
+        <v>13715.12</v>
       </c>
       <c r="D2">
-        <v>0.6233075474039204</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>3352.571839070519</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.1454364693858671</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>782.2562291563759</v>
+        <v>13715.12</v>
       </c>
       <c r="H2">
-        <v>0.2312559832102125</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1243.851931773106</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1290,36 +1185,36 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3">
-        <v>2816.24</v>
+        <v>11813.52</v>
       </c>
       <c r="D3">
-        <v>0.4261304908460836</v>
+        <v>0.1254404321559681</v>
       </c>
       <c r="E3">
-        <v>1200.085733540375</v>
+        <v>1481.893054083172</v>
       </c>
       <c r="F3">
-        <v>0.5099963733827679</v>
+        <v>0.7286618954187276</v>
       </c>
       <c r="G3">
-        <v>1436.272186575487</v>
+        <v>8608.061874767049</v>
       </c>
       <c r="H3">
-        <v>0.06387313577114838</v>
+        <v>0.1458976724253043</v>
       </c>
       <c r="I3">
-        <v>179.8820798841389</v>
+        <v>1723.565071149781</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1328,30 +1223,30 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4">
-        <v>4062.880000000001</v>
+        <v>4534.68</v>
       </c>
       <c r="D4">
-        <v>0.8331283547927741</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>3384.900530120467</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.1668716452072259</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>677.9794698795341</v>
+        <v>4534.68</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1366,68 +1261,68 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5">
-        <v>4534.68</v>
+        <v>4062.880000000001</v>
       </c>
       <c r="D5">
-        <v>0.2045710607114264</v>
+        <v>0.6753386380964344</v>
       </c>
       <c r="E5">
-        <v>927.6642975868912</v>
+        <v>2743.819845949241</v>
       </c>
       <c r="F5">
-        <v>0.7290276133280614</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>3305.906937606494</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.06640132596051201</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>301.1087648066147</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3246613619035656</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1319.060154050759</v>
       </c>
       <c r="L5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6">
-        <v>11813.52</v>
+        <v>5907.84</v>
       </c>
       <c r="D6">
-        <v>0.1170379062545036</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>1382.629646295704</v>
+        <v>5907.84</v>
       </c>
       <c r="F6">
-        <v>0.8829620937454963</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>10430.8903537043</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1442,36 +1337,36 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7">
-        <v>21519.908</v>
+        <v>11813.52</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.6233075474039204</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>7363.456177407163</v>
       </c>
       <c r="F7">
-        <v>0.7866117922291094</v>
+        <v>0.1454364693858671</v>
       </c>
       <c r="G7">
-        <v>16927.81340048555</v>
+        <v>1718.116639819329</v>
       </c>
       <c r="H7">
-        <v>0.2133882077708907</v>
+        <v>0.2312559832102125</v>
       </c>
       <c r="I7">
-        <v>4592.094599514453</v>
+        <v>2731.94718277351</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1480,36 +1375,36 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8">
-        <v>8641.438</v>
+        <v>5378.68</v>
       </c>
       <c r="D8">
-        <v>0.8524733423944143</v>
+        <v>0.6233075474039204</v>
       </c>
       <c r="E8">
-        <v>7366.595534954103</v>
+        <v>3352.571839070519</v>
       </c>
       <c r="F8">
-        <v>0.07031303662383838</v>
+        <v>0.1454364693858671</v>
       </c>
       <c r="G8">
-        <v>607.6057465766287</v>
+        <v>782.2562291563759</v>
       </c>
       <c r="H8">
-        <v>0.07721362098174735</v>
+        <v>0.2312559832102125</v>
       </c>
       <c r="I8">
-        <v>667.2367184692688</v>
+        <v>1243.851931773106</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1518,36 +1413,36 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9">
-        <v>5903.405000000001</v>
+        <v>4872.88</v>
       </c>
       <c r="D9">
-        <v>0.2470435615178573</v>
+        <v>0.6233075474039204</v>
       </c>
       <c r="E9">
-        <v>1458.398196282326</v>
+        <v>3037.302881593615</v>
       </c>
       <c r="F9">
-        <v>0.7529564384821427</v>
+        <v>0.1454364693858671</v>
       </c>
       <c r="G9">
-        <v>4445.006803717674</v>
+        <v>708.6944629410042</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.2312559832102125</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1126.88265546538</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1556,36 +1451,36 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10">
-        <v>5357.880000000001</v>
+        <v>6237.358</v>
       </c>
       <c r="D10">
-        <v>0.224052881107731</v>
+        <v>0.4261304908460836</v>
       </c>
       <c r="E10">
-        <v>1200.44845062949</v>
+        <v>2657.928426122747</v>
       </c>
       <c r="F10">
-        <v>0.6876035718210637</v>
+        <v>0.5099963733827679</v>
       </c>
       <c r="G10">
-        <v>3684.097425388642</v>
+        <v>3181.029959489995</v>
       </c>
       <c r="H10">
-        <v>0.08834354707120523</v>
+        <v>0.06387313577114838</v>
       </c>
       <c r="I10">
-        <v>473.3341239818692</v>
+        <v>398.3996143872585</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1594,74 +1489,74 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11">
-        <v>5907.84</v>
+        <v>21519.908</v>
       </c>
       <c r="D11">
-        <v>0.2927691716935925</v>
+        <v>0.4261304908460836</v>
       </c>
       <c r="E11">
-        <v>1729.633423298273</v>
+        <v>9170.288959002562</v>
       </c>
       <c r="F11">
-        <v>0.5620070859768697</v>
+        <v>0.5099963733827679</v>
       </c>
       <c r="G11">
-        <v>3320.24794281759</v>
+        <v>10975.07503553082</v>
       </c>
       <c r="H11">
-        <v>0.07695976693271135</v>
+        <v>0.06387313577114838</v>
       </c>
       <c r="I11">
-        <v>454.6659894757494</v>
+        <v>1374.544005466622</v>
       </c>
       <c r="J11">
-        <v>0.06826397539682644</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>403.2926444083871</v>
+        <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12">
-        <v>13715.12</v>
+        <v>5357.558000000001</v>
       </c>
       <c r="D12">
-        <v>0.2618823274983394</v>
+        <v>0.4261304908460836</v>
       </c>
       <c r="E12">
-        <v>3591.747547519025</v>
+        <v>2283.018820276362</v>
       </c>
       <c r="F12">
-        <v>0.7381176725016606</v>
+        <v>0.5099963733827679</v>
       </c>
       <c r="G12">
-        <v>10123.37245248098</v>
+        <v>2732.335150187836</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06387313577114838</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>342.2040295358022</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1670,45 +1565,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13">
-        <v>9918.480000000001</v>
-      </c>
-      <c r="D13">
-        <v>0.1384475577869906</v>
-      </c>
-      <c r="E13">
-        <v>1373.189332959111</v>
-      </c>
-      <c r="F13">
-        <v>0.8615524422130094</v>
-      </c>
-      <c r="G13">
-        <v>8545.29066704089</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1718,7 +1575,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1764,25 +1621,25 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C2">
-        <v>2689.34</v>
+        <v>1408.12</v>
       </c>
       <c r="D2">
-        <v>0.5692232389401374</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1530.834825411269</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4307767610598627</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1158.505174588731</v>
+        <v>1408.12</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1797,30 +1654,30 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C3">
-        <v>1408.12</v>
+        <v>5906.760000000001</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.5084460998831797</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>3003.269084945971</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.4915539001168203</v>
       </c>
       <c r="G3">
-        <v>1408.12</v>
+        <v>2903.49091505403</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1835,30 +1692,30 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C4">
-        <v>2031.44</v>
+        <v>2689.34</v>
       </c>
       <c r="D4">
-        <v>0.6978790507982313</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1417.699418953559</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3021209492017687</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>613.7405810464411</v>
+        <v>2689.34</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1873,30 +1730,30 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C5">
-        <v>2267.34</v>
+        <v>2436.44</v>
       </c>
       <c r="D5">
-        <v>0.4784901315231759</v>
+        <v>0.9022016896552206</v>
       </c>
       <c r="E5">
-        <v>1084.899814807758</v>
+        <v>2198.160284743566</v>
       </c>
       <c r="F5">
-        <v>0.5215098684768241</v>
+        <v>0.09779831034477936</v>
       </c>
       <c r="G5">
-        <v>1182.440185192243</v>
+        <v>238.2797152564342</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1911,30 +1768,30 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C6">
-        <v>5906.760000000001</v>
+        <v>2267.34</v>
       </c>
       <c r="D6">
-        <v>0.218644397981921</v>
+        <v>0.5079094701116023</v>
       </c>
       <c r="E6">
-        <v>1291.479984223692</v>
+        <v>1151.60345796284</v>
       </c>
       <c r="F6">
-        <v>0.7813556020180789</v>
+        <v>0.4920905298883979</v>
       </c>
       <c r="G6">
-        <v>4615.280015776309</v>
+        <v>1115.73654203716</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1949,30 +1806,30 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C7">
-        <v>10759.954</v>
+        <v>4959.240000000001</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>10759.954</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>4959.240000000001</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1987,30 +1844,30 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C8">
-        <v>4320.719</v>
+        <v>13417.5</v>
       </c>
       <c r="D8">
-        <v>0.6998205442627634</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>3023.727922186463</v>
+        <v>13417.5</v>
       </c>
       <c r="F8">
-        <v>0.3001794557372366</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>1296.991077813537</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2025,36 +1882,36 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C9">
-        <v>2951.7025</v>
+        <v>5906.760000000001</v>
       </c>
       <c r="D9">
-        <v>0.1968054225992155</v>
+        <v>0.5692232389401374</v>
       </c>
       <c r="E9">
-        <v>580.911057899661</v>
+        <v>3362.265058842047</v>
       </c>
       <c r="F9">
-        <v>0.5775689692422397</v>
+        <v>0.4307767610598627</v>
       </c>
       <c r="G9">
-        <v>1704.811770434742</v>
+        <v>2544.494941157955</v>
       </c>
       <c r="H9">
-        <v>0.2256256081585449</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>665.9796716655975</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -2063,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2071,28 +1928,28 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C10">
-        <v>2678.940000000001</v>
+        <v>2689.34</v>
       </c>
       <c r="D10">
-        <v>0.5056236031899219</v>
+        <v>0.5692232389401374</v>
       </c>
       <c r="E10">
-        <v>1354.53529552961</v>
+        <v>1530.834825411269</v>
       </c>
       <c r="F10">
-        <v>0.3261212061011876</v>
+        <v>0.4307767610598627</v>
       </c>
       <c r="G10">
-        <v>873.6591438727157</v>
+        <v>1158.505174588731</v>
       </c>
       <c r="H10">
-        <v>0.1682551907088905</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>450.7455605976751</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -2101,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2109,22 +1966,22 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C11">
-        <v>2953.92</v>
+        <v>2436.44</v>
       </c>
       <c r="D11">
-        <v>0.6291985348156217</v>
+        <v>0.5692232389401374</v>
       </c>
       <c r="E11">
-        <v>1858.602135962561</v>
+        <v>1386.878268283308</v>
       </c>
       <c r="F11">
-        <v>0.3708014651843783</v>
+        <v>0.4307767610598627</v>
       </c>
       <c r="G11">
-        <v>1095.317864037439</v>
+        <v>1049.561731716692</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -2139,30 +1996,30 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C12">
-        <v>6857.560000000001</v>
+        <v>3118.679</v>
       </c>
       <c r="D12">
-        <v>0.737304874903086</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>5056.112417940408</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.2626951250969139</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>1801.447582059593</v>
+        <v>3118.679</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2177,45 +2034,83 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13">
+        <v>10759.954</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>10759.954</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13">
-        <v>4959.240000000001</v>
-      </c>
-      <c r="D13">
-        <v>0.3769182330066921</v>
-      </c>
-      <c r="E13">
-        <v>1869.227977856108</v>
-      </c>
-      <c r="F13">
-        <v>0.4414021532518742</v>
-      </c>
-      <c r="G13">
-        <v>2189.019214492825</v>
-      </c>
-      <c r="H13">
-        <v>0.1816796137414338</v>
-      </c>
-      <c r="I13">
-        <v>900.9928076510682</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13" t="s">
-        <v>32</v>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14">
+        <v>2678.779</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2678.779</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2225,7 +2120,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2271,40 +2166,192 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2">
+        <v>17720.28</v>
+      </c>
+      <c r="D2">
+        <v>0.1003499859916336</v>
+      </c>
+      <c r="E2">
+        <v>1778.229849767824</v>
+      </c>
+      <c r="F2">
+        <v>0.6443788858083428</v>
+      </c>
+      <c r="G2">
+        <v>11418.57428261186</v>
+      </c>
+      <c r="H2">
+        <v>0.2552711282000236</v>
+      </c>
+      <c r="I2">
+        <v>4523.475867620315</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3">
+        <v>8068.02</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>8068.02</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
         <v>33</v>
       </c>
-      <c r="C2">
-        <v>8861.76</v>
-      </c>
-      <c r="D2">
-        <v>0.3725793963747561</v>
-      </c>
-      <c r="E2">
-        <v>3301.709191617958</v>
-      </c>
-      <c r="F2">
-        <v>0.5057712110669266</v>
-      </c>
-      <c r="G2">
-        <v>4482.023087384448</v>
-      </c>
-      <c r="H2">
-        <v>0.1216493925583172</v>
-      </c>
-      <c r="I2">
-        <v>1078.027720997593</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
-        <v>33</v>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4">
+        <v>7309.32</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>7309.32</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5">
+        <v>6802.02</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>6802.02</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6">
+        <v>6094.32</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>6094.32</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/output_validation/0b_female_pin_percentage_total_OCHA.xlsx
+++ b/output_validation/0b_female_pin_percentage_total_OCHA.xlsx
@@ -17,9 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="37">
-  <si>
-    <t>admin3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="34">
+  <si>
+    <t>admin1</t>
   </si>
   <si>
     <t>Population group</t>
@@ -55,73 +55,64 @@
     <t>Category</t>
   </si>
   <si>
-    <t>MMR008003</t>
-  </si>
-  <si>
-    <t>MMR009019</t>
-  </si>
-  <si>
-    <t>MMR009020</t>
-  </si>
-  <si>
-    <t>MMR012003</t>
-  </si>
-  <si>
-    <t>MMR012006</t>
-  </si>
-  <si>
-    <t>MMR012010</t>
-  </si>
-  <si>
-    <t>MMR012011</t>
-  </si>
-  <si>
-    <t>MMR012015</t>
-  </si>
-  <si>
-    <t>MMR012016</t>
-  </si>
-  <si>
-    <t>MMR001001</t>
-  </si>
-  <si>
-    <t>MMR001002</t>
-  </si>
-  <si>
-    <t>MMR001004</t>
-  </si>
-  <si>
-    <t>MMR002005</t>
-  </si>
-  <si>
-    <t>MMR002006</t>
-  </si>
-  <si>
-    <t>MMR002007</t>
+    <t>MMR001</t>
+  </si>
+  <si>
+    <t>MMR002</t>
+  </si>
+  <si>
+    <t>MMR003</t>
+  </si>
+  <si>
+    <t>MMR004</t>
+  </si>
+  <si>
+    <t>MMR005</t>
+  </si>
+  <si>
+    <t>MMR006</t>
+  </si>
+  <si>
+    <t>MMR007</t>
+  </si>
+  <si>
+    <t>MMR008</t>
+  </si>
+  <si>
+    <t>MMR009</t>
+  </si>
+  <si>
+    <t>MMR010</t>
+  </si>
+  <si>
+    <t>MMR011</t>
+  </si>
+  <si>
+    <t>MMR012</t>
+  </si>
+  <si>
+    <t>MMR013</t>
+  </si>
+  <si>
+    <t>MMR014</t>
+  </si>
+  <si>
+    <t>MMR015</t>
+  </si>
+  <si>
+    <t>MMR016</t>
+  </si>
+  <si>
+    <t>MMR017</t>
+  </si>
+  <si>
+    <t>MMR018</t>
   </si>
   <si>
     <t>ocap</t>
   </si>
   <si>
-    <t>MMR009018</t>
-  </si>
-  <si>
-    <t>MMR012001</t>
-  </si>
-  <si>
-    <t>MMR012005</t>
-  </si>
-  <si>
-    <t>MMR012007</t>
-  </si>
-  <si>
     <t>idp</t>
-  </si>
-  <si>
-    <t>MMR012004</t>
-  </si>
-  <si>
-    <t>MMR012014</t>
   </si>
   <si>
     <t>ret</t>
@@ -485,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,37 +525,37 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C2">
-        <v>82694.64</v>
+        <v>37650.76</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.7236896900952252</v>
       </c>
       <c r="E2">
-        <v>82694.64</v>
+        <v>27247.4668362497</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.2392081879336686</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>9006.370073925453</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.02425551390122181</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>913.2385325715661</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.01284660806988456</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>483.6845572532869</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -572,28 +563,28 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C3">
         <v>19713.68</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.2865024362954217</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>5648.017348348328</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6836879450220117</v>
       </c>
       <c r="G3">
-        <v>19713.68</v>
+        <v>13478.00536802153</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.02980961868256649</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>587.6572836301374</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -602,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -610,28 +601,28 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C4">
-        <v>187845</v>
+        <v>28440.16</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.5184680287850673</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>14745.31369353192</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.4163491503321772</v>
       </c>
       <c r="G4">
-        <v>187845</v>
+        <v>11841.03645131117</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.06518282088275558</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1853.80985515691</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -640,7 +631,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -648,37 +639,37 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C5">
-        <v>37650.76</v>
+        <v>31742.76</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.3141882758702438</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>9973.203035762941</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6605474775397754</v>
       </c>
       <c r="G5">
-        <v>37650.76</v>
+        <v>20967.60004815048</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.01981639618841873</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>629.0271082738906</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.005447850401562023</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>172.9298078126869</v>
       </c>
       <c r="L5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -686,28 +677,28 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C6">
-        <v>69429.36</v>
+        <v>82694.64</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.2568598759208515</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>21240.93496971948</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6895390258600377</v>
       </c>
       <c r="G6">
-        <v>69429.36</v>
+        <v>57021.18150944651</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.05360109821911088</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4432.523520834015</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -716,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -724,28 +715,28 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C7">
-        <v>41354.88</v>
+        <v>150639.356</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.6559253601089992</v>
       </c>
       <c r="E7">
-        <v>41354.88</v>
+        <v>98808.17383088771</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.2882136591683537</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>43416.32000752429</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0558609807226471</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>8414.862161587973</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -754,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -762,22 +753,22 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C8">
-        <v>37505.16</v>
+        <v>60490.066</v>
       </c>
       <c r="D8">
-        <v>0.4190776228049733</v>
+        <v>0.8108905460848412</v>
       </c>
       <c r="E8">
-        <v>15717.57329572017</v>
+        <v>49050.82265144808</v>
       </c>
       <c r="F8">
-        <v>0.5809223771950267</v>
+        <v>0.1891094539151588</v>
       </c>
       <c r="G8">
-        <v>21787.58670427983</v>
+        <v>11439.24334855191</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -792,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -800,28 +791,28 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C9">
-        <v>60490.066</v>
+        <v>43661.506</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.7323658671158727</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>31976.19670127488</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.1779369828077599</v>
       </c>
       <c r="G9">
-        <v>60490.066</v>
+        <v>7768.996642482904</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0896971500763676</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3916.312656242224</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -830,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -838,22 +829,22 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C10">
-        <v>49846.447</v>
+        <v>41323.835</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.7714299607478479</v>
       </c>
       <c r="E10">
-        <v>49846.447</v>
+        <v>31878.44441200054</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.2285700392521522</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>9445.39058799946</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -868,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -876,37 +867,37 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C11">
-        <v>82694.64</v>
+        <v>187845</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.7596800349328485</v>
       </c>
       <c r="E11">
-        <v>82694.64</v>
+        <v>142702.0961619609</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.1756559775812145</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>32996.09710874324</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0515602845440673</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>9685.34165018032</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.0131037029418697</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2461.465079115514</v>
       </c>
       <c r="L11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -914,37 +905,37 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C12">
-        <v>37650.76</v>
+        <v>37505.16</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0.7128105267199996</v>
       </c>
       <c r="E12">
-        <v>37650.76</v>
+        <v>26734.07285431786</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.1403826364618404</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>5265.073241723158</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.08227568805469489</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3085.76284460142</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.0645311487634652</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2420.251059357564</v>
       </c>
       <c r="L12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -952,28 +943,28 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C13">
-        <v>34110.16</v>
+        <v>41354.88</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.4808454996810909</v>
       </c>
       <c r="E13">
-        <v>34110.16</v>
+        <v>19885.30793785155</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.4770717900946745</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>19729.24663075045</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.04208271022423451</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1740.325431397991</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -982,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -990,28 +981,28 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C14">
-        <v>43661.506</v>
+        <v>49846.447</v>
       </c>
       <c r="D14">
-        <v>0.3058367755965674</v>
+        <v>0.6957578242286829</v>
       </c>
       <c r="E14">
-        <v>13353.29421273018</v>
+        <v>34681.05551025036</v>
       </c>
       <c r="F14">
-        <v>0.6445471855862365</v>
+        <v>0.2236820162678014</v>
       </c>
       <c r="G14">
-        <v>28141.90081075658</v>
+        <v>11149.7537687461</v>
       </c>
       <c r="H14">
-        <v>0.0496160388171961</v>
+        <v>0.08056015950351567</v>
       </c>
       <c r="I14">
-        <v>2166.31097651324</v>
+        <v>4015.63772100354</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1020,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1028,28 +1019,28 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C15">
-        <v>150639.356</v>
+        <v>96005.84</v>
       </c>
       <c r="D15">
-        <v>0.3058367755965674</v>
+        <v>0.8475270353110149</v>
       </c>
       <c r="E15">
-        <v>46071.05491698342</v>
+        <v>81367.54494774365</v>
       </c>
       <c r="F15">
-        <v>0.6445471855862365</v>
+        <v>0.1283580034696053</v>
       </c>
       <c r="G15">
-        <v>97094.17294832313</v>
+        <v>12323.11794382237</v>
       </c>
       <c r="H15">
-        <v>0.0496160388171961</v>
+        <v>0.0241149612193799</v>
       </c>
       <c r="I15">
-        <v>7474.12813469342</v>
+        <v>2315.177108433992</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1058,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1066,37 +1057,151 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>69429.36</v>
+      </c>
+      <c r="D16">
+        <v>0.4973199688330368</v>
+      </c>
+      <c r="E16">
+        <v>34528.60715129769</v>
+      </c>
+      <c r="F16">
+        <v>0.4071193621253184</v>
+      </c>
+      <c r="G16">
+        <v>28266.03675596909</v>
+      </c>
+      <c r="H16">
+        <v>0.08437489747912612</v>
+      </c>
+      <c r="I16">
+        <v>5858.09513204134</v>
+      </c>
+      <c r="J16">
+        <v>0.01118577156251888</v>
+      </c>
+      <c r="K16">
+        <v>776.6209606918861</v>
+      </c>
+      <c r="L16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="C16">
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
         <v>37502.906</v>
       </c>
-      <c r="D16">
-        <v>0.3058367755965674</v>
-      </c>
-      <c r="E16">
-        <v>11469.76784654116</v>
-      </c>
-      <c r="F16">
-        <v>0.6445471855862365</v>
-      </c>
-      <c r="G16">
-        <v>24172.39251360518</v>
-      </c>
-      <c r="H16">
-        <v>0.0496160388171961</v>
-      </c>
-      <c r="I16">
-        <v>1860.745639853656</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16" t="s">
-        <v>27</v>
+      <c r="D17">
+        <v>0.8660838637861521</v>
+      </c>
+      <c r="E17">
+        <v>32480.66173168887</v>
+      </c>
+      <c r="F17">
+        <v>0.1017105875734995</v>
+      </c>
+      <c r="G17">
+        <v>3814.442604973722</v>
+      </c>
+      <c r="H17">
+        <v>0.03220554864034835</v>
+      </c>
+      <c r="I17">
+        <v>1207.801663337412</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>43375.465</v>
+      </c>
+      <c r="D18">
+        <v>0.9255845165932146</v>
+      </c>
+      <c r="E18">
+        <v>40147.6588040309</v>
+      </c>
+      <c r="F18">
+        <v>0.04550899172814852</v>
+      </c>
+      <c r="G18">
+        <v>1973.973677889596</v>
+      </c>
+      <c r="H18">
+        <v>0.01723777374349997</v>
+      </c>
+      <c r="I18">
+        <v>747.696451689102</v>
+      </c>
+      <c r="J18">
+        <v>0.01166871793513673</v>
+      </c>
+      <c r="K18">
+        <v>506.1360663903956</v>
+      </c>
+      <c r="L18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>34110.16</v>
+      </c>
+      <c r="D19">
+        <v>0.8751637330175982</v>
+      </c>
+      <c r="E19">
+        <v>29851.97495942755</v>
+      </c>
+      <c r="F19">
+        <v>0.06463008325310399</v>
+      </c>
+      <c r="G19">
+        <v>2204.542480576697</v>
+      </c>
+      <c r="H19">
+        <v>0.06020618372929779</v>
+      </c>
+      <c r="I19">
+        <v>2053.642559995744</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1106,7 +1211,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1152,31 +1257,31 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2">
-        <v>13715.12</v>
+        <v>5378.68</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.7636430006853658</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>4107.391334926364</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.1576238105360946</v>
       </c>
       <c r="G2">
-        <v>13715.12</v>
+        <v>847.8080372542813</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.07873318877853965</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>423.4806278193556</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1185,226 +1290,226 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3">
-        <v>11813.52</v>
+        <v>2816.24</v>
       </c>
       <c r="D3">
-        <v>0.1254404321559681</v>
+        <v>0.3434720406723505</v>
       </c>
       <c r="E3">
-        <v>1481.893054083172</v>
+        <v>967.2996998231006</v>
       </c>
       <c r="F3">
-        <v>0.7286618954187276</v>
+        <v>0.6160385043040554</v>
       </c>
       <c r="G3">
-        <v>8608.061874767049</v>
+        <v>1734.912277361253</v>
       </c>
       <c r="H3">
-        <v>0.1458976724253043</v>
+        <v>0.01763046118375694</v>
       </c>
       <c r="I3">
-        <v>1723.565071149781</v>
+        <v>49.65161000414364</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.02285899383983707</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>64.37641281150275</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4">
-        <v>4534.68</v>
+        <v>4062.880000000001</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.4831488860607837</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1962.975946198637</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.4668930084929387</v>
       </c>
       <c r="G4">
-        <v>4534.68</v>
+        <v>1896.930266345791</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.01852596257794513</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>75.26876283868174</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.03143214286833273</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>127.7050246168917</v>
       </c>
       <c r="L4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
       <c r="C5">
-        <v>4062.880000000001</v>
+        <v>4534.68</v>
       </c>
       <c r="D5">
-        <v>0.6753386380964344</v>
+        <v>0.2255899434957103</v>
       </c>
       <c r="E5">
-        <v>2743.819845949241</v>
+        <v>1022.978204971128</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.7333886172009896</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>3325.682694648984</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0283353226488051</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>128.4916209090835</v>
       </c>
       <c r="J5">
-        <v>0.3246613619035656</v>
+        <v>0.01268611665449509</v>
       </c>
       <c r="K5">
-        <v>1319.060154050759</v>
+        <v>57.52747947080579</v>
       </c>
       <c r="L5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6">
-        <v>5907.84</v>
+        <v>11813.52</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.01053189900464389</v>
       </c>
       <c r="E6">
-        <v>5907.84</v>
+        <v>124.4187995293407</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.8701968506970117</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>10280.08789964616</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.02698627938433926</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>318.8029512324795</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.09228497091400525</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1090.21034959202</v>
       </c>
       <c r="L6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7">
-        <v>11813.52</v>
+        <v>21519.908</v>
       </c>
       <c r="D7">
-        <v>0.6233075474039204</v>
+        <v>0.3666699756698283</v>
       </c>
       <c r="E7">
-        <v>7363.456177407163</v>
+        <v>7890.704142776945</v>
       </c>
       <c r="F7">
-        <v>0.1454364693858671</v>
+        <v>0.5491365975327455</v>
       </c>
       <c r="G7">
-        <v>1718.116639819329</v>
+        <v>11817.36905833771</v>
       </c>
       <c r="H7">
-        <v>0.2312559832102125</v>
+        <v>0.04990483938450553</v>
       </c>
       <c r="I7">
-        <v>2731.94718277351</v>
+        <v>1073.947552309336</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.03428858741292071</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>737.8872465760118</v>
       </c>
       <c r="L7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8">
-        <v>5378.68</v>
+        <v>8641.438</v>
       </c>
       <c r="D8">
-        <v>0.6233075474039204</v>
+        <v>0.665636722421267</v>
       </c>
       <c r="E8">
-        <v>3352.571839070519</v>
+        <v>5752.058467326589</v>
       </c>
       <c r="F8">
-        <v>0.1454364693858671</v>
+        <v>0.2580981627597926</v>
       </c>
       <c r="G8">
-        <v>782.2562291563759</v>
+        <v>2230.339271402656</v>
       </c>
       <c r="H8">
-        <v>0.2312559832102125</v>
+        <v>0.07626511481894054</v>
       </c>
       <c r="I8">
-        <v>1243.851931773106</v>
+        <v>659.0402612707559</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1413,159 +1518,197 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9">
-        <v>4872.88</v>
+        <v>5903.405000000001</v>
       </c>
       <c r="D9">
-        <v>0.6233075474039204</v>
+        <v>0.4379820665480078</v>
       </c>
       <c r="E9">
-        <v>3037.302881593615</v>
+        <v>2585.585521569843</v>
       </c>
       <c r="F9">
-        <v>0.1454364693858671</v>
+        <v>0.4694785473927623</v>
       </c>
       <c r="G9">
-        <v>708.6944629410042</v>
+        <v>2771.52200407117</v>
       </c>
       <c r="H9">
-        <v>0.2312559832102125</v>
+        <v>0.06501086585799726</v>
       </c>
       <c r="I9">
-        <v>1126.88265546538</v>
+        <v>383.7854705604303</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.02752852020123246</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>162.5120037985567</v>
       </c>
       <c r="L9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10">
-        <v>6237.358</v>
+        <v>5357.880000000001</v>
       </c>
       <c r="D10">
-        <v>0.4261304908460836</v>
+        <v>0.4441367798599228</v>
       </c>
       <c r="E10">
-        <v>2657.928426122747</v>
+        <v>2379.631570075884</v>
       </c>
       <c r="F10">
-        <v>0.5099963733827679</v>
+        <v>0.3744393659934109</v>
       </c>
       <c r="G10">
-        <v>3181.029959489995</v>
+        <v>2006.201190268777</v>
       </c>
       <c r="H10">
-        <v>0.06387313577114838</v>
+        <v>0.0644050735709525</v>
       </c>
       <c r="I10">
-        <v>398.3996143872585</v>
+        <v>345.0746555843351</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1170187805757138</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>626.9725840710057</v>
       </c>
       <c r="L10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11">
-        <v>21519.908</v>
+        <v>5907.84</v>
       </c>
       <c r="D11">
-        <v>0.4261304908460836</v>
+        <v>0.3193362133150582</v>
       </c>
       <c r="E11">
-        <v>9170.288959002562</v>
+        <v>1886.587254471233</v>
       </c>
       <c r="F11">
-        <v>0.5099963733827679</v>
+        <v>0.5546956149147714</v>
       </c>
       <c r="G11">
-        <v>10975.07503553082</v>
+        <v>3277.052941618083</v>
       </c>
       <c r="H11">
-        <v>0.06387313577114838</v>
+        <v>0.1139084598878584</v>
       </c>
       <c r="I11">
-        <v>1374.544005466622</v>
+        <v>672.9529556638853</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.01205971188231214</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>71.24684824679898</v>
       </c>
       <c r="L11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <v>13715.12</v>
+      </c>
+      <c r="D12">
+        <v>0.50562203170395</v>
+      </c>
+      <c r="E12">
+        <v>6934.666839463481</v>
+      </c>
+      <c r="F12">
+        <v>0.4512158675159272</v>
+      </c>
+      <c r="G12">
+        <v>6188.479768885044</v>
+      </c>
+      <c r="H12">
+        <v>0.0431621007801227</v>
+      </c>
+      <c r="I12">
+        <v>591.9733916514765</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12">
-        <v>5357.558000000001</v>
-      </c>
-      <c r="D12">
-        <v>0.4261304908460836</v>
-      </c>
-      <c r="E12">
-        <v>2283.018820276362</v>
-      </c>
-      <c r="F12">
-        <v>0.5099963733827679</v>
-      </c>
-      <c r="G12">
-        <v>2732.335150187836</v>
-      </c>
-      <c r="H12">
-        <v>0.06387313577114838</v>
-      </c>
-      <c r="I12">
-        <v>342.2040295358022</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12" t="s">
-        <v>32</v>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13">
+        <v>9918.480000000001</v>
+      </c>
+      <c r="D13">
+        <v>0.1624601990088694</v>
+      </c>
+      <c r="E13">
+        <v>1611.358234665491</v>
+      </c>
+      <c r="F13">
+        <v>0.8132757498888581</v>
+      </c>
+      <c r="G13">
+        <v>8066.459259757642</v>
+      </c>
+      <c r="H13">
+        <v>0.02426405110227242</v>
+      </c>
+      <c r="I13">
+        <v>240.662505576867</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1575,7 +1718,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1621,31 +1764,31 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2">
-        <v>1408.12</v>
+        <v>2689.34</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.6109849491331182</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1643.14626310166</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3504399005575994</v>
       </c>
       <c r="G2">
-        <v>1408.12</v>
+        <v>942.4520421655745</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.03857515030928242</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>103.7416947327656</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1654,68 +1797,68 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C3">
-        <v>5906.760000000001</v>
+        <v>1408.12</v>
       </c>
       <c r="D3">
-        <v>0.5084460998831797</v>
+        <v>0.1389284526796424</v>
       </c>
       <c r="E3">
-        <v>3003.269084945971</v>
+        <v>195.627932787258</v>
       </c>
       <c r="F3">
-        <v>0.4915539001168203</v>
+        <v>0.7770962716257869</v>
       </c>
       <c r="G3">
-        <v>2903.49091505403</v>
+        <v>1094.244802001703</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.02956559494558583</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>41.63190555477832</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.05440968074898475</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>76.61535965626041</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C4">
-        <v>2689.34</v>
+        <v>2031.44</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.5328494875980573</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1082.451763086198</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.4671505124019426</v>
       </c>
       <c r="G4">
-        <v>2689.34</v>
+        <v>948.9882369138024</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1730,36 +1873,36 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C5">
-        <v>2436.44</v>
+        <v>2267.34</v>
       </c>
       <c r="D5">
-        <v>0.9022016896552206</v>
+        <v>0.448486830414843</v>
       </c>
       <c r="E5">
-        <v>2198.160284743566</v>
+        <v>1016.87213007279</v>
       </c>
       <c r="F5">
-        <v>0.09779831034477936</v>
+        <v>0.5272815330456194</v>
       </c>
       <c r="G5">
-        <v>238.2797152564342</v>
+        <v>1195.526511135655</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.02423163653953751</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>54.94135879155498</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1768,30 +1911,30 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C6">
-        <v>2267.34</v>
+        <v>5906.760000000001</v>
       </c>
       <c r="D6">
-        <v>0.5079094701116023</v>
+        <v>0.07808646459031106</v>
       </c>
       <c r="E6">
-        <v>1151.60345796284</v>
+        <v>461.2380055834658</v>
       </c>
       <c r="F6">
-        <v>0.4920905298883979</v>
+        <v>0.921913535409689</v>
       </c>
       <c r="G6">
-        <v>1115.73654203716</v>
+        <v>5445.521994416536</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1806,36 +1949,36 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C7">
-        <v>4959.240000000001</v>
+        <v>10759.954</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.6683280015228639</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>7191.178553297947</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.2918512553295026</v>
       </c>
       <c r="G7">
-        <v>4959.240000000001</v>
+        <v>3140.306082187703</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.03982074314763352</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>428.469364514352</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1844,36 +1987,36 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C8">
-        <v>13417.5</v>
+        <v>4320.719</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.5370462916961699</v>
       </c>
       <c r="E8">
-        <v>13417.5</v>
+        <v>2320.426116411184</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.4434397190123373</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1915.978419291267</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0195139892914926</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>84.31446429754862</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1882,45 +2025,45 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C9">
-        <v>5906.760000000001</v>
+        <v>2951.7025</v>
       </c>
       <c r="D9">
-        <v>0.5692232389401374</v>
+        <v>0.2290400219628516</v>
       </c>
       <c r="E9">
-        <v>3362.265058842047</v>
+        <v>676.0580054278041</v>
       </c>
       <c r="F9">
-        <v>0.4307767610598627</v>
+        <v>0.5782148690627021</v>
       </c>
       <c r="G9">
-        <v>2544.494941157955</v>
+        <v>1706.718274549551</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.1429641772008985</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>421.9877192543351</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.04978093177354764</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>146.93850076831</v>
       </c>
       <c r="L9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1928,37 +2071,37 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C10">
-        <v>2689.34</v>
+        <v>2678.940000000001</v>
       </c>
       <c r="D10">
-        <v>0.5692232389401374</v>
+        <v>0.5683882818605211</v>
       </c>
       <c r="E10">
-        <v>1530.834825411269</v>
+        <v>1522.678103807425</v>
       </c>
       <c r="F10">
-        <v>0.4307767610598627</v>
+        <v>0.2645865320080541</v>
       </c>
       <c r="G10">
-        <v>1158.505174588731</v>
+        <v>708.8114440576566</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.1565777249880679</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>419.4623305795348</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.01044746114335675</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>27.98812155538415</v>
       </c>
       <c r="L10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1966,66 +2109,66 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C11">
-        <v>2436.44</v>
+        <v>2953.92</v>
       </c>
       <c r="D11">
-        <v>0.5692232389401374</v>
+        <v>0.4042210626890028</v>
       </c>
       <c r="E11">
-        <v>1386.878268283308</v>
+        <v>1194.036681498299</v>
       </c>
       <c r="F11">
-        <v>0.4307767610598627</v>
+        <v>0.5226942840398715</v>
       </c>
       <c r="G11">
-        <v>1049.561731716692</v>
+        <v>1543.997099511057</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.06707184162707072</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>198.1248544190368</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.006012811644054996</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>17.76136457160693</v>
       </c>
       <c r="L11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C12">
-        <v>3118.679</v>
+        <v>6857.560000000001</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.6195880185893339</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>4248.862012757473</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.1845302652493898</v>
       </c>
       <c r="G12">
-        <v>3118.679</v>
+        <v>1265.427365763605</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.1958817161612764</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1343.270621478923</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -2034,83 +2177,45 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C13">
-        <v>10759.954</v>
+        <v>4959.240000000001</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.3339541637595115</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1656.15884708272</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.5559098893092997</v>
       </c>
       <c r="G13">
-        <v>10759.954</v>
+        <v>2756.890559458252</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.08007043750580958</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>397.0885164963112</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.03006550942537912</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>149.1020769627172</v>
       </c>
       <c r="L13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14">
-        <v>2678.779</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>2678.779</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2120,7 +2225,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2166,192 +2271,40 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C2">
-        <v>17720.28</v>
+        <v>8861.76</v>
       </c>
       <c r="D2">
-        <v>0.1003499859916336</v>
+        <v>0.3605762564738771</v>
       </c>
       <c r="E2">
-        <v>1778.229849767824</v>
+        <v>3195.340246569946</v>
       </c>
       <c r="F2">
-        <v>0.6443788858083428</v>
+        <v>0.5574700014763981</v>
       </c>
       <c r="G2">
-        <v>11418.57428261186</v>
+        <v>4940.165360283486</v>
       </c>
       <c r="H2">
-        <v>0.2552711282000236</v>
+        <v>0.0763183671935062</v>
       </c>
       <c r="I2">
-        <v>4523.475867620315</v>
+        <v>676.3150536607254</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.00563537485621851</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>49.93933948584295</v>
       </c>
       <c r="L2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3">
-        <v>8068.02</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>8068.02</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
         <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4">
-        <v>7309.32</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>7309.32</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5">
-        <v>6802.02</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>6802.02</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6">
-        <v>6094.32</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>6094.32</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
